--- a/TeamGenrator.xlsx
+++ b/TeamGenrator.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>O-1</t>
   </si>
@@ -111,12 +111,6 @@
     <t xml:space="preserve"> Deepak Chahar</t>
   </si>
   <si>
-    <t>Jhye Richardson</t>
-  </si>
-  <si>
-    <t>Murugan Ashwin</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Jhye Richardson</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
     <t>Shikhar Dhawan</t>
   </si>
   <si>
-    <t>Ajinkya Rahane</t>
-  </si>
-  <si>
     <t>Rishabh Pant</t>
   </si>
   <si>
@@ -186,39 +177,9 @@
     <t>R Ashwin</t>
   </si>
   <si>
-    <t>Anrich Nortje</t>
-  </si>
-  <si>
     <t>Avesh Khan</t>
   </si>
   <si>
-    <t>KL Rahul</t>
-  </si>
-  <si>
-    <t>Mayank Agarwal</t>
-  </si>
-  <si>
-    <t>Chris Gayle</t>
-  </si>
-  <si>
-    <t>Deepak Hooda</t>
-  </si>
-  <si>
-    <t>Nicholas Pooran</t>
-  </si>
-  <si>
-    <t>Shahrukh Khan</t>
-  </si>
-  <si>
-    <t>Chris Jordan</t>
-  </si>
-  <si>
-    <t>Mohammed Shami</t>
-  </si>
-  <si>
-    <t>Arshdeep Singh</t>
-  </si>
-  <si>
     <t>BothTopDeathBowl</t>
   </si>
   <si>
@@ -226,6 +187,45 @@
   </si>
   <si>
     <t>D-2</t>
+  </si>
+  <si>
+    <t>Steven Smith</t>
+  </si>
+  <si>
+    <t>Amit Mishra</t>
+  </si>
+  <si>
+    <t>Rohit Sharma</t>
+  </si>
+  <si>
+    <t>Quinton de Kock</t>
+  </si>
+  <si>
+    <t>Suryakumar Yadav</t>
+  </si>
+  <si>
+    <t>Ishan Kishan</t>
+  </si>
+  <si>
+    <t>Hardik Pandya</t>
+  </si>
+  <si>
+    <t>Kieron Pollard</t>
+  </si>
+  <si>
+    <t>Krunal Pandya</t>
+  </si>
+  <si>
+    <t>Rahul Chahar</t>
+  </si>
+  <si>
+    <t>Adam Milne</t>
+  </si>
+  <si>
+    <t>Jasprit Bumrah</t>
+  </si>
+  <si>
+    <t>Trent Boult</t>
   </si>
 </sst>
 </file>
@@ -648,25 +648,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -680,11 +680,11 @@
         <v>20</v>
       </c>
       <c r="D2" t="str">
-        <f>B2</f>
+        <f t="shared" ref="D2:E4" si="0">B2</f>
         <v xml:space="preserve">KL Rahul (c/wk) </v>
       </c>
       <c r="E2" t="str">
-        <f>C2</f>
+        <f t="shared" si="0"/>
         <v>Ruturaj Gaikwad</v>
       </c>
       <c r="F2" t="str">
@@ -707,11 +707,11 @@
         <v>21</v>
       </c>
       <c r="D3" t="str">
-        <f>B3</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> Mayank Agarwal</v>
       </c>
       <c r="E3" t="str">
-        <f>C3</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> Faf du Plessis</v>
       </c>
       <c r="F3" t="str">
@@ -734,11 +734,11 @@
         <v>22</v>
       </c>
       <c r="D4" t="str">
-        <f>B4</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> Chris Gayle </v>
       </c>
       <c r="E4" t="str">
-        <f>C4</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> Moeen Ali</v>
       </c>
       <c r="F4" t="str">
@@ -765,11 +765,11 @@
         <v>Ruturaj Gaikwad</v>
       </c>
       <c r="E5" t="str">
-        <f>B4</f>
+        <f t="shared" ref="E5:F7" si="1">B4</f>
         <v xml:space="preserve"> Chris Gayle </v>
       </c>
       <c r="F5" t="str">
-        <f>C4</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> Moeen Ali</v>
       </c>
       <c r="G5" t="str">
@@ -792,11 +792,11 @@
         <v xml:space="preserve"> Faf du Plessis</v>
       </c>
       <c r="E6" t="str">
-        <f>B5</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> Deepak Hooda</v>
       </c>
       <c r="F6" t="str">
-        <f>C5</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> Suresh Raina</v>
       </c>
       <c r="G6" t="str">
@@ -819,11 +819,11 @@
         <v xml:space="preserve"> Moeen Ali</v>
       </c>
       <c r="E7" t="str">
-        <f>B6</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> Nicholas Pooran </v>
       </c>
       <c r="F7" t="str">
-        <f>C6</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> Ambati Rayudu</v>
       </c>
       <c r="G7" t="str">
@@ -836,7 +836,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -944,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +986,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -994,28 +994,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1023,30 +1023,30 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" t="str">
-        <f>B3</f>
-        <v>Prithvi Shaw</v>
+        <f t="shared" ref="D3:E5" si="0">B3</f>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="E3" t="str">
-        <f>C3</f>
-        <v>KL Rahul</v>
+        <f t="shared" si="0"/>
+        <v>Rohit Sharma</v>
       </c>
       <c r="F3" t="str">
         <f>B3</f>
-        <v>Prithvi Shaw</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="G3" t="str">
         <f>B5</f>
-        <v>Ajinkya Rahane</v>
+        <v>Steven Smith</v>
       </c>
       <c r="H3" t="str">
         <f>B3</f>
-        <v>Prithvi Shaw</v>
+        <v>Shikhar Dhawan</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1054,22 +1054,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" t="str">
-        <f>B4</f>
-        <v>Shikhar Dhawan</v>
+        <f t="shared" si="0"/>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="E4" t="str">
-        <f>C4</f>
-        <v>Mayank Agarwal</v>
+        <f t="shared" si="0"/>
+        <v>Quinton de Kock</v>
       </c>
       <c r="F4" t="str">
         <f>B4</f>
-        <v>Shikhar Dhawan</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="G4" t="str">
         <f>B6</f>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="H4" t="str">
         <f>B4</f>
-        <v>Shikhar Dhawan</v>
+        <v>Prithvi Shaw</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1085,22 +1085,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" t="str">
-        <f>B5</f>
-        <v>Ajinkya Rahane</v>
+        <f t="shared" si="0"/>
+        <v>Steven Smith</v>
       </c>
       <c r="E5" t="str">
-        <f>C5</f>
-        <v>Chris Gayle</v>
+        <f t="shared" si="0"/>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="F5" t="str">
         <f>B5</f>
-        <v>Ajinkya Rahane</v>
+        <v>Steven Smith</v>
       </c>
       <c r="G5" t="str">
         <f>B7</f>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="H5" t="str">
         <f>B5</f>
-        <v>Ajinkya Rahane</v>
+        <v>Steven Smith</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1116,30 +1116,30 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" t="str">
         <f>C3</f>
-        <v>KL Rahul</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="E6" t="str">
-        <f>B5</f>
-        <v>Ajinkya Rahane</v>
+        <f t="shared" ref="E6:F8" si="1">B5</f>
+        <v>Steven Smith</v>
       </c>
       <c r="F6" t="str">
-        <f>C5</f>
-        <v>Chris Gayle</v>
+        <f t="shared" si="1"/>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="G6" t="str">
         <f>C5</f>
-        <v>Chris Gayle</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="H6" t="str">
         <f>C3</f>
-        <v>KL Rahul</v>
+        <v>Rohit Sharma</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1147,30 +1147,30 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" t="str">
         <f>C4</f>
-        <v>Mayank Agarwal</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="E7" t="str">
-        <f>B6</f>
+        <f t="shared" si="1"/>
         <v>Rishabh Pant</v>
       </c>
       <c r="F7" t="str">
-        <f>C6</f>
-        <v>Deepak Hooda</v>
+        <f t="shared" si="1"/>
+        <v>Ishan Kishan</v>
       </c>
       <c r="G7" t="str">
         <f>C6</f>
-        <v>Deepak Hooda</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="H7" t="str">
         <f>C4</f>
-        <v>Mayank Agarwal</v>
+        <v>Quinton de Kock</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1178,30 +1178,30 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" t="str">
         <f>C5</f>
-        <v>Chris Gayle</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="E8" t="str">
-        <f>B7</f>
+        <f t="shared" si="1"/>
         <v>Marcus Stoinis</v>
       </c>
       <c r="F8" t="str">
-        <f>C7</f>
-        <v>Nicholas Pooran</v>
+        <f t="shared" si="1"/>
+        <v>Hardik Pandya</v>
       </c>
       <c r="G8" t="str">
         <f>C7</f>
-        <v>Nicholas Pooran</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="H8" t="str">
         <f>C5</f>
-        <v>Chris Gayle</v>
+        <v>Suryakumar Yadav</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1209,10 +1209,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D9" t="str">
         <f>B10</f>
@@ -1220,19 +1220,19 @@
       </c>
       <c r="E9" t="str">
         <f>C12</f>
-        <v>Mohammed Shami</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="F9" t="str">
         <f>C10</f>
-        <v>Arshdeep Singh</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="G9" t="str">
         <f>B12</f>
-        <v>Anrich Nortje</v>
-      </c>
-      <c r="H9" t="str">
+        <v>Kagiso Rabada</v>
+      </c>
+      <c r="H9">
         <f>B14</f>
-        <v>Anrich Nortje</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1240,30 +1240,30 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
       </c>
       <c r="D10" t="str">
         <f>B11</f>
-        <v>Chris Woakes</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="E10" t="str">
         <f>C13</f>
-        <v>Jhye Richardson</v>
+        <v>Trent Boult</v>
       </c>
       <c r="F10" t="str">
         <f>C11</f>
-        <v>Chris Jordan</v>
+        <v>Adam Milne</v>
       </c>
       <c r="G10" t="str">
         <f>B13</f>
-        <v>Kagiso Rabada</v>
-      </c>
-      <c r="H10" t="str">
+        <v>Chris Woakes</v>
+      </c>
+      <c r="H10">
         <f>B15</f>
-        <v>Kagiso Rabada</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1271,14 +1271,14 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D11" t="str">
         <f>C10</f>
-        <v>Arshdeep Singh</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="E11" t="str">
         <f>B10</f>
@@ -1286,15 +1286,15 @@
       </c>
       <c r="F11" t="str">
         <f>B12</f>
-        <v>Anrich Nortje</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="G11" t="str">
         <f>C12</f>
-        <v>Mohammed Shami</v>
-      </c>
-      <c r="H11" t="str">
+        <v>Jasprit Bumrah</v>
+      </c>
+      <c r="H11">
         <f>C14</f>
-        <v>Chris Jordan</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1302,30 +1302,30 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D12" t="str">
         <f>C11</f>
-        <v>Chris Jordan</v>
+        <v>Adam Milne</v>
       </c>
       <c r="E12" t="str">
         <f>B11</f>
-        <v>Chris Woakes</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="F12" t="str">
         <f>B13</f>
-        <v>Kagiso Rabada</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="G12" t="str">
         <f>C13</f>
-        <v>Jhye Richardson</v>
-      </c>
-      <c r="H12" t="str">
+        <v>Trent Boult</v>
+      </c>
+      <c r="H12">
         <f>C15</f>
-        <v>Mohammed Shami</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1333,35 +1333,23 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1369,76 +1357,76 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f>B3</f>
-        <v>Prithvi Shaw</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="E17" t="str">
         <f>B3</f>
-        <v>Prithvi Shaw</v>
+        <v>Shikhar Dhawan</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f>B4</f>
-        <v>Shikhar Dhawan</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="E18" t="str">
         <f>B4</f>
-        <v>Shikhar Dhawan</v>
+        <v>Prithvi Shaw</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f>B5</f>
-        <v>Ajinkya Rahane</v>
+        <v>Steven Smith</v>
       </c>
       <c r="E19" t="str">
         <f>B5</f>
-        <v>Ajinkya Rahane</v>
+        <v>Steven Smith</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f>C3</f>
-        <v>KL Rahul</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="E20" t="str">
         <f>C6</f>
-        <v>Deepak Hooda</v>
+        <v>Ishan Kishan</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f>C4</f>
-        <v>Mayank Agarwal</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="E21" t="str">
         <f>C7</f>
-        <v>Nicholas Pooran</v>
+        <v>Hardik Pandya</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f>C5</f>
-        <v>Chris Gayle</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="E22" t="str">
         <f>C8</f>
-        <v>Shahrukh Khan</v>
+        <v>Kieron Pollard</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
@@ -1454,31 +1442,31 @@
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f>B11</f>
-        <v>Chris Woakes</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="E24" t="str">
         <f>B11</f>
-        <v>Chris Woakes</v>
+        <v>Amit Mishra</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f>B12</f>
-        <v>Anrich Nortje</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="E25" t="str">
         <f>B12</f>
-        <v>Anrich Nortje</v>
+        <v>Kagiso Rabada</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f>B13</f>
-        <v>Kagiso Rabada</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="E26" t="str">
         <f>B13</f>
-        <v>Kagiso Rabada</v>
+        <v>Chris Woakes</v>
       </c>
     </row>
   </sheetData>

--- a/TeamGenrator.xlsx
+++ b/TeamGenrator.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
   <si>
     <t>O-1</t>
   </si>
@@ -111,6 +111,9 @@
     <t xml:space="preserve"> Deepak Chahar</t>
   </si>
   <si>
+    <t>Murugan Ashwin</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Jhye Richardson</t>
   </si>
   <si>
@@ -153,31 +156,25 @@
     <t>TeamATopTeamABowlTeamBBot</t>
   </si>
   <si>
-    <t>Prithvi Shaw</t>
-  </si>
-  <si>
-    <t>Shikhar Dhawan</t>
-  </si>
-  <si>
-    <t>Rishabh Pant</t>
-  </si>
-  <si>
-    <t>Marcus Stoinis</t>
-  </si>
-  <si>
-    <t>Lalit Yadav</t>
-  </si>
-  <si>
-    <t>Chris Woakes</t>
-  </si>
-  <si>
-    <t>Kagiso Rabada</t>
-  </si>
-  <si>
-    <t>R Ashwin</t>
-  </si>
-  <si>
-    <t>Avesh Khan</t>
+    <t>Mayank Agarwal</t>
+  </si>
+  <si>
+    <t>Chris Gayle</t>
+  </si>
+  <si>
+    <t>Deepak Hooda</t>
+  </si>
+  <si>
+    <t>Nicholas Pooran</t>
+  </si>
+  <si>
+    <t>Shahrukh Khan</t>
+  </si>
+  <si>
+    <t>Mohammed Shami</t>
+  </si>
+  <si>
+    <t>Arshdeep Singh</t>
   </si>
   <si>
     <t>BothTopDeathBowl</t>
@@ -189,18 +186,24 @@
     <t>D-2</t>
   </si>
   <si>
-    <t>Steven Smith</t>
-  </si>
-  <si>
-    <t>Amit Mishra</t>
+    <t>Fabian Allen</t>
+  </si>
+  <si>
+    <t>KL Rahul(w/c)</t>
+  </si>
+  <si>
+    <t>Moises Henriques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                Most Picked (70%)</t>
+  </si>
+  <si>
+    <t>Quinton de Kock</t>
   </si>
   <si>
     <t>Rohit Sharma</t>
   </si>
   <si>
-    <t>Quinton de Kock</t>
-  </si>
-  <si>
     <t>Suryakumar Yadav</t>
   </si>
   <si>
@@ -219,13 +222,103 @@
     <t>Rahul Chahar</t>
   </si>
   <si>
-    <t>Adam Milne</t>
+    <t>Jayant Yadav</t>
   </si>
   <si>
     <t>Jasprit Bumrah</t>
   </si>
   <si>
     <t>Trent Boult</t>
+  </si>
+  <si>
+    <t>Last Match NOT in DT</t>
+  </si>
+  <si>
+    <t>PitchType</t>
+  </si>
+  <si>
+    <t>Bowling</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>70/30</t>
+  </si>
+  <si>
+    <t>BestFor</t>
+  </si>
+  <si>
+    <t>Spinners</t>
+  </si>
+  <si>
+    <t>Match Details</t>
+  </si>
+  <si>
+    <t>Yashasvi Jaiswal</t>
+  </si>
+  <si>
+    <t>Shivam Dube</t>
+  </si>
+  <si>
+    <t>David Miller</t>
+  </si>
+  <si>
+    <t>Rahul Tewatia</t>
+  </si>
+  <si>
+    <t>Chris Morris</t>
+  </si>
+  <si>
+    <t>Shreyas Gopal</t>
+  </si>
+  <si>
+    <t>Chetan Sakariya</t>
+  </si>
+  <si>
+    <t>Mustafizur Rahman</t>
+  </si>
+  <si>
+    <t>Nitish Rana</t>
+  </si>
+  <si>
+    <t>Shubman Gill</t>
+  </si>
+  <si>
+    <t>Rahul Tripathi</t>
+  </si>
+  <si>
+    <t>Eoin Morgan</t>
+  </si>
+  <si>
+    <t>Dinesh Karthik</t>
+  </si>
+  <si>
+    <t>Sunil Narine</t>
+  </si>
+  <si>
+    <t>Andre Russell</t>
+  </si>
+  <si>
+    <t>Pat Cummins</t>
+  </si>
+  <si>
+    <t>Kamlesh Nagarkoti</t>
+  </si>
+  <si>
+    <t>Varun Chakravarthy</t>
+  </si>
+  <si>
+    <t>Prasidh Krishna</t>
+  </si>
+  <si>
+    <t>$Jos Buttler</t>
+  </si>
+  <si>
+    <t>$Riyan Parag</t>
+  </si>
+  <si>
+    <t>$Sanju Samson</t>
   </si>
 </sst>
 </file>
@@ -256,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +392,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -312,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -329,11 +452,196 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -648,25 +956,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -836,7 +1144,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -944,7 +1252,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -952,7 +1260,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -968,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +1294,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -994,90 +1302,90 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:E5" si="0">B3</f>
-        <v>Shikhar Dhawan</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="0"/>
-        <v>Rohit Sharma</v>
+      <c r="B3" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="18" t="str">
+        <f>B3</f>
+        <v>$Jos Buttler</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="D3:E5" si="0">C3</f>
+        <v>Nitish Rana</v>
       </c>
       <c r="F3" t="str">
         <f>B3</f>
-        <v>Shikhar Dhawan</v>
+        <v>$Jos Buttler</v>
       </c>
       <c r="G3" t="str">
         <f>B5</f>
-        <v>Steven Smith</v>
+        <v>$Sanju Samson</v>
       </c>
       <c r="H3" t="str">
         <f>B3</f>
-        <v>Shikhar Dhawan</v>
+        <v>$Jos Buttler</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>45</v>
+      <c r="B4" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>Prithvi Shaw</v>
+        <v>88</v>
+      </c>
+      <c r="D4" s="18" t="str">
+        <f>B4</f>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>Quinton de Kock</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="F4" t="str">
         <f>B4</f>
-        <v>Prithvi Shaw</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="G4" t="str">
         <f>B6</f>
-        <v>Rishabh Pant</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="H4" t="str">
         <f>B4</f>
-        <v>Prithvi Shaw</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1085,30 +1393,30 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="str">
+        <v>89</v>
+      </c>
+      <c r="D5" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>Steven Smith</v>
+        <v>$Sanju Samson</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>Suryakumar Yadav</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="F5" t="str">
         <f>B5</f>
-        <v>Steven Smith</v>
+        <v>$Sanju Samson</v>
       </c>
       <c r="G5" t="str">
         <f>B7</f>
-        <v>Marcus Stoinis</v>
+        <v>David Miller</v>
       </c>
       <c r="H5" t="str">
         <f>B5</f>
-        <v>Steven Smith</v>
+        <v>$Sanju Samson</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1116,30 +1424,30 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="str">
+        <v>90</v>
+      </c>
+      <c r="D6" s="18" t="str">
         <f>C3</f>
-        <v>Rohit Sharma</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ref="E6:F8" si="1">B5</f>
-        <v>Steven Smith</v>
+        <v>$Sanju Samson</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>Suryakumar Yadav</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="G6" t="str">
         <f>C5</f>
-        <v>Suryakumar Yadav</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="H6" t="str">
         <f>C3</f>
-        <v>Rohit Sharma</v>
+        <v>Nitish Rana</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1147,30 +1455,30 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="str">
+        <v>91</v>
+      </c>
+      <c r="D7" s="18" t="str">
         <f>C4</f>
-        <v>Quinton de Kock</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
-        <v>Rishabh Pant</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>Ishan Kishan</v>
+        <v>Eoin Morgan</v>
       </c>
       <c r="G7" t="str">
         <f>C6</f>
-        <v>Ishan Kishan</v>
+        <v>Eoin Morgan</v>
       </c>
       <c r="H7" t="str">
         <f>C4</f>
-        <v>Quinton de Kock</v>
+        <v>Shubman Gill</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1178,30 +1486,30 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="str">
+        <v>92</v>
+      </c>
+      <c r="D8" s="18" t="str">
         <f>C5</f>
-        <v>Suryakumar Yadav</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
-        <v>Marcus Stoinis</v>
+        <v>David Miller</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>Hardik Pandya</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="G8" t="str">
         <f>C7</f>
-        <v>Hardik Pandya</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="H8" t="str">
         <f>C5</f>
-        <v>Suryakumar Yadav</v>
+        <v>Rahul Tripathi</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1209,30 +1517,30 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" t="str">
+        <v>82</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="18" t="str">
         <f>B10</f>
-        <v>Avesh Khan</v>
+        <v>Chris Morris</v>
       </c>
       <c r="E9" t="str">
         <f>C12</f>
-        <v>Jasprit Bumrah</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="F9" t="str">
         <f>C10</f>
-        <v>Rahul Chahar</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="G9" t="str">
         <f>B12</f>
-        <v>Kagiso Rabada</v>
-      </c>
-      <c r="H9">
+        <v>Chetan Sakariya</v>
+      </c>
+      <c r="H9" t="str">
         <f>B14</f>
-        <v>0</v>
+        <v>Chris Morris</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1240,30 +1548,30 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="str">
+        <v>94</v>
+      </c>
+      <c r="D10" s="18" t="str">
         <f>B11</f>
-        <v>Amit Mishra</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="E10" t="str">
         <f>C13</f>
-        <v>Trent Boult</v>
+        <v>Prasidh Krishna</v>
       </c>
       <c r="F10" t="str">
         <f>C11</f>
-        <v>Adam Milne</v>
+        <v>Kamlesh Nagarkoti</v>
       </c>
       <c r="G10" t="str">
         <f>B13</f>
-        <v>Chris Woakes</v>
-      </c>
-      <c r="H10">
+        <v>Mustafizur Rahman</v>
+      </c>
+      <c r="H10" t="str">
         <f>B15</f>
-        <v>0</v>
+        <v>Mustafizur Rahman</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1271,30 +1579,30 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" t="str">
+        <v>95</v>
+      </c>
+      <c r="D11" s="18" t="str">
         <f>C10</f>
-        <v>Rahul Chahar</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="E11" t="str">
         <f>B10</f>
-        <v>Avesh Khan</v>
+        <v>Chris Morris</v>
       </c>
       <c r="F11" t="str">
         <f>B12</f>
-        <v>Kagiso Rabada</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="G11" t="str">
         <f>C12</f>
-        <v>Jasprit Bumrah</v>
-      </c>
-      <c r="H11">
+        <v>Varun Chakravarthy</v>
+      </c>
+      <c r="H11" t="str">
         <f>C14</f>
-        <v>0</v>
+        <v>Prasidh Krishna</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1302,30 +1610,30 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="str">
+        <v>96</v>
+      </c>
+      <c r="D12" s="18" t="str">
         <f>C11</f>
-        <v>Adam Milne</v>
+        <v>Kamlesh Nagarkoti</v>
       </c>
       <c r="E12" t="str">
         <f>B11</f>
-        <v>Amit Mishra</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="F12" t="str">
         <f>B13</f>
-        <v>Chris Woakes</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="G12" t="str">
         <f>C13</f>
-        <v>Trent Boult</v>
-      </c>
-      <c r="H12">
+        <v>Prasidh Krishna</v>
+      </c>
+      <c r="H12" t="str">
         <f>C15</f>
-        <v>0</v>
+        <v>Andre Russell</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1333,23 +1641,35 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1357,116 +1677,116 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f>B3</f>
-        <v>Shikhar Dhawan</v>
+        <v>$Jos Buttler</v>
       </c>
       <c r="E17" t="str">
         <f>B3</f>
-        <v>Shikhar Dhawan</v>
+        <v>$Jos Buttler</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f>B4</f>
-        <v>Prithvi Shaw</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="E18" t="str">
         <f>B4</f>
-        <v>Prithvi Shaw</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f>B5</f>
-        <v>Steven Smith</v>
+        <v>$Sanju Samson</v>
       </c>
       <c r="E19" t="str">
         <f>B5</f>
-        <v>Steven Smith</v>
+        <v>$Sanju Samson</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f>C3</f>
-        <v>Rohit Sharma</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="E20" t="str">
         <f>C6</f>
-        <v>Ishan Kishan</v>
+        <v>Eoin Morgan</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f>C4</f>
-        <v>Quinton de Kock</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="E21" t="str">
         <f>C7</f>
-        <v>Hardik Pandya</v>
+        <v>Dinesh Karthik</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f>C5</f>
-        <v>Suryakumar Yadav</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="E22" t="str">
         <f>C8</f>
-        <v>Kieron Pollard</v>
+        <v>Sunil Narine</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f>B10</f>
-        <v>Avesh Khan</v>
+        <v>Chris Morris</v>
       </c>
       <c r="E23" t="str">
         <f>B10</f>
-        <v>Avesh Khan</v>
+        <v>Chris Morris</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f>B11</f>
-        <v>Amit Mishra</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="E24" t="str">
         <f>B11</f>
-        <v>Amit Mishra</v>
+        <v>Shreyas Gopal</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f>B12</f>
-        <v>Kagiso Rabada</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="E25" t="str">
         <f>B12</f>
-        <v>Kagiso Rabada</v>
+        <v>Chetan Sakariya</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f>B13</f>
-        <v>Chris Woakes</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="E26" t="str">
         <f>B13</f>
-        <v>Chris Woakes</v>
+        <v>Mustafizur Rahman</v>
       </c>
     </row>
   </sheetData>
@@ -1474,18 +1794,246 @@
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D15:G15"/>
   </mergeCells>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="beginsWith" priority="2" operator="beginsWith" text="$">
+      <formula>LEFT(B22,LEN("$"))="$"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:H26">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="$">
+      <formula>NOT(ISERROR(SEARCH("$",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TeamGenrator.xlsx
+++ b/TeamGenrator.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
   <si>
     <t>O-1</t>
   </si>
@@ -255,77 +255,94 @@
     <t>Match Details</t>
   </si>
   <si>
-    <t>Yashasvi Jaiswal</t>
-  </si>
-  <si>
-    <t>Shivam Dube</t>
-  </si>
-  <si>
-    <t>David Miller</t>
-  </si>
-  <si>
-    <t>Rahul Tewatia</t>
-  </si>
-  <si>
-    <t>Chris Morris</t>
-  </si>
-  <si>
-    <t>Shreyas Gopal</t>
-  </si>
-  <si>
-    <t>Chetan Sakariya</t>
-  </si>
-  <si>
-    <t>Mustafizur Rahman</t>
-  </si>
-  <si>
-    <t>Nitish Rana</t>
-  </si>
-  <si>
-    <t>Shubman Gill</t>
-  </si>
-  <si>
-    <t>Rahul Tripathi</t>
-  </si>
-  <si>
-    <t>Eoin Morgan</t>
-  </si>
-  <si>
-    <t>Dinesh Karthik</t>
-  </si>
-  <si>
-    <t>Sunil Narine</t>
-  </si>
-  <si>
-    <t>Andre Russell</t>
-  </si>
-  <si>
-    <t>Pat Cummins</t>
-  </si>
-  <si>
-    <t>Kamlesh Nagarkoti</t>
-  </si>
-  <si>
-    <t>Varun Chakravarthy</t>
-  </si>
-  <si>
-    <t>Prasidh Krishna</t>
-  </si>
-  <si>
-    <t>$Jos Buttler</t>
-  </si>
-  <si>
-    <t>$Riyan Parag</t>
-  </si>
-  <si>
-    <t>$Sanju Samson</t>
+    <t>Faf du Plessis</t>
+  </si>
+  <si>
+    <t>Moeen Ali</t>
+  </si>
+  <si>
+    <t>MS Dhoni</t>
+  </si>
+  <si>
+    <t>Deepak Chahar</t>
+  </si>
+  <si>
+    <t>Sam Curran</t>
+  </si>
+  <si>
+    <t>Lungi Ngidi</t>
+  </si>
+  <si>
+    <t>Devdutt Padikkal</t>
+  </si>
+  <si>
+    <t>Virat Kohli</t>
+  </si>
+  <si>
+    <t>Washington Sundar</t>
+  </si>
+  <si>
+    <t>Kane Richardson</t>
+  </si>
+  <si>
+    <t>Kyle Jamieson</t>
+  </si>
+  <si>
+    <t>Mohammed Siraj</t>
+  </si>
+  <si>
+    <t>Harshal Patel</t>
+  </si>
+  <si>
+    <t>$Suresh Raina</t>
+  </si>
+  <si>
+    <t>$Ambati Rayudu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ravindra Jadeja</t>
+    </r>
+  </si>
+  <si>
+    <t>$Shardul Thakur</t>
+  </si>
+  <si>
+    <t>$Shahbaz Ahmed</t>
+  </si>
+  <si>
+    <t>$Glenn Maxwell</t>
+  </si>
+  <si>
+    <t>$AB de Villiers</t>
+  </si>
+  <si>
+    <t>$Yuzvendra Chahal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +361,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -435,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -466,11 +491,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1277,7 +1343,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,6 +1365,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1331,30 +1398,30 @@
         <v>0</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="18" t="str">
         <f>B3</f>
-        <v>$Jos Buttler</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
       <c r="E3" s="4" t="str">
         <f t="shared" ref="D3:E5" si="0">C3</f>
-        <v>Nitish Rana</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="F3" t="str">
         <f>B3</f>
-        <v>$Jos Buttler</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
       <c r="G3" t="str">
         <f>B5</f>
-        <v>$Sanju Samson</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="H3" t="str">
         <f>B3</f>
-        <v>$Jos Buttler</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1365,27 +1432,27 @@
         <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="18" t="str">
         <f>B4</f>
-        <v>Yashasvi Jaiswal</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>Shubman Gill</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="F4" t="str">
         <f>B4</f>
-        <v>Yashasvi Jaiswal</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="G4" t="str">
         <f>B6</f>
-        <v>Shivam Dube</v>
+        <v>$Suresh Raina</v>
       </c>
       <c r="H4" t="str">
         <f>B4</f>
-        <v>Yashasvi Jaiswal</v>
+        <v>Faf du Plessis</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1393,30 +1460,30 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D5" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>$Sanju Samson</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>Rahul Tripathi</v>
+        <v>$Shahbaz Ahmed</v>
       </c>
       <c r="F5" t="str">
         <f>B5</f>
-        <v>$Sanju Samson</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="G5" t="str">
         <f>B7</f>
-        <v>David Miller</v>
+        <v>$Ambati Rayudu</v>
       </c>
       <c r="H5" t="str">
         <f>B5</f>
-        <v>$Sanju Samson</v>
+        <v>Moeen Ali</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1424,30 +1491,30 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D6" s="18" t="str">
         <f>C3</f>
-        <v>Nitish Rana</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ref="E6:F8" si="1">B5</f>
-        <v>$Sanju Samson</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>Rahul Tripathi</v>
+        <v>$Shahbaz Ahmed</v>
       </c>
       <c r="G6" t="str">
         <f>C5</f>
-        <v>Rahul Tripathi</v>
+        <v>$Shahbaz Ahmed</v>
       </c>
       <c r="H6" t="str">
         <f>C3</f>
-        <v>Nitish Rana</v>
+        <v>Devdutt Padikkal</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1455,30 +1522,30 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D7" s="18" t="str">
         <f>C4</f>
-        <v>Shubman Gill</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
-        <v>Shivam Dube</v>
+        <v>$Suresh Raina</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>Eoin Morgan</v>
+        <v>$Glenn Maxwell</v>
       </c>
       <c r="G7" t="str">
         <f>C6</f>
-        <v>Eoin Morgan</v>
+        <v>$Glenn Maxwell</v>
       </c>
       <c r="H7" t="str">
         <f>C4</f>
-        <v>Shubman Gill</v>
+        <v>Virat Kohli</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1486,30 +1553,30 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D8" s="18" t="str">
         <f>C5</f>
-        <v>Rahul Tripathi</v>
+        <v>$Shahbaz Ahmed</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
-        <v>David Miller</v>
+        <v>$Ambati Rayudu</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>Dinesh Karthik</v>
+        <v>$AB de Villiers</v>
       </c>
       <c r="G8" t="str">
         <f>C7</f>
-        <v>Dinesh Karthik</v>
+        <v>$AB de Villiers</v>
       </c>
       <c r="H8" t="str">
         <f>C5</f>
-        <v>Rahul Tripathi</v>
+        <v>$Shahbaz Ahmed</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1517,30 +1584,30 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D9" s="18" t="str">
         <f>B10</f>
-        <v>Chris Morris</v>
+        <v>$Shardul Thakur</v>
       </c>
       <c r="E9" t="str">
         <f>C12</f>
-        <v>Varun Chakravarthy</v>
+        <v>Kyle Jamieson</v>
       </c>
       <c r="F9" t="str">
         <f>C10</f>
-        <v>Pat Cummins</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="G9" t="str">
         <f>B12</f>
-        <v>Chetan Sakariya</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="H9" t="str">
         <f>B14</f>
-        <v>Chris Morris</v>
+        <v>Lungi Ngidi</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1548,30 +1615,30 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D10" s="18" t="str">
         <f>B11</f>
-        <v>Shreyas Gopal</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="E10" t="str">
         <f>C13</f>
-        <v>Prasidh Krishna</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="F10" t="str">
         <f>C11</f>
-        <v>Kamlesh Nagarkoti</v>
+        <v>$Yuzvendra Chahal</v>
       </c>
       <c r="G10" t="str">
         <f>B13</f>
-        <v>Mustafizur Rahman</v>
+        <v>Sam Curran</v>
       </c>
       <c r="H10" t="str">
         <f>B15</f>
-        <v>Mustafizur Rahman</v>
+        <v>Sam Curran</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1582,27 +1649,27 @@
         <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D11" s="18" t="str">
         <f>C10</f>
-        <v>Pat Cummins</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="E11" t="str">
         <f>B10</f>
-        <v>Chris Morris</v>
+        <v>$Shardul Thakur</v>
       </c>
       <c r="F11" t="str">
         <f>B12</f>
-        <v>Chetan Sakariya</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="G11" t="str">
         <f>C12</f>
-        <v>Varun Chakravarthy</v>
+        <v>Kyle Jamieson</v>
       </c>
       <c r="H11" t="str">
         <f>C14</f>
-        <v>Prasidh Krishna</v>
+        <v>Kyle Jamieson</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1610,30 +1677,30 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D12" s="18" t="str">
         <f>C11</f>
-        <v>Kamlesh Nagarkoti</v>
+        <v>$Yuzvendra Chahal</v>
       </c>
       <c r="E12" t="str">
         <f>B11</f>
-        <v>Shreyas Gopal</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="F12" t="str">
         <f>B13</f>
-        <v>Mustafizur Rahman</v>
+        <v>Sam Curran</v>
       </c>
       <c r="G12" t="str">
         <f>C13</f>
-        <v>Prasidh Krishna</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="H12" t="str">
         <f>C15</f>
-        <v>Andre Russell</v>
+        <v>Harshal Patel</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1641,10 +1708,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1652,10 +1719,10 @@
         <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1663,10 +1730,10 @@
         <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>43</v>
@@ -1692,101 +1759,101 @@
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f>B3</f>
-        <v>$Jos Buttler</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
       <c r="E17" t="str">
         <f>B3</f>
-        <v>$Jos Buttler</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f>B4</f>
-        <v>Yashasvi Jaiswal</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="E18" t="str">
         <f>B4</f>
-        <v>Yashasvi Jaiswal</v>
+        <v>Faf du Plessis</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f>B5</f>
-        <v>$Sanju Samson</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="E19" t="str">
         <f>B5</f>
-        <v>$Sanju Samson</v>
+        <v>Moeen Ali</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f>C3</f>
-        <v>Nitish Rana</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="E20" t="str">
         <f>C6</f>
-        <v>Eoin Morgan</v>
+        <v>$Glenn Maxwell</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f>C4</f>
-        <v>Shubman Gill</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="E21" t="str">
         <f>C7</f>
-        <v>Dinesh Karthik</v>
+        <v>$AB de Villiers</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f>C5</f>
-        <v>Rahul Tripathi</v>
+        <v>$Shahbaz Ahmed</v>
       </c>
       <c r="E22" t="str">
         <f>C8</f>
-        <v>Sunil Narine</v>
+        <v>Washington Sundar</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f>B10</f>
-        <v>Chris Morris</v>
+        <v>$Shardul Thakur</v>
       </c>
       <c r="E23" t="str">
         <f>B10</f>
-        <v>Chris Morris</v>
+        <v>$Shardul Thakur</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f>B11</f>
-        <v>Shreyas Gopal</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="E24" t="str">
         <f>B11</f>
-        <v>Shreyas Gopal</v>
+        <v>Lungi Ngidi</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f>B12</f>
-        <v>Chetan Sakariya</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="E25" t="str">
         <f>B12</f>
-        <v>Chetan Sakariya</v>
+        <v>Deepak Chahar</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f>B13</f>
-        <v>Mustafizur Rahman</v>
+        <v>Sam Curran</v>
       </c>
       <c r="E26" t="str">
         <f>B13</f>
-        <v>Mustafizur Rahman</v>
+        <v>Sam Curran</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H26">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="$">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="$">
       <formula>NOT(ISERROR(SEARCH("$",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
